--- a/单词联想.xlsx
+++ b/单词联想.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>indite</t>
   </si>
@@ -601,7 +601,7 @@
     <t>abnegate</t>
   </si>
   <si>
-    <t xml:space="preserve"> 阿布ab的那个门神否定、放弃了你， 你只能投降。</t>
+    <t>阿布ab的那个门神否定、放弃了你， 你只能投降。</t>
   </si>
   <si>
     <t>abort abortive</t>
@@ -764,6 +764,279 @@
   </si>
   <si>
     <t>a+vocation(职业) 非正规职业 副业</t>
+  </si>
+  <si>
+    <t>sequela</t>
+  </si>
+  <si>
+    <t>跟随着啦， 结果就成了后继人</t>
+  </si>
+  <si>
+    <t>bawl</t>
+  </si>
+  <si>
+    <t>b+awl(尖钻)，被尖钻戳到而大喊</t>
+  </si>
+  <si>
+    <t>beatific</t>
+  </si>
+  <si>
+    <t>beat(幸福)+ific→幸福的  打拍子的beati 菲科 是幸福的</t>
+  </si>
+  <si>
+    <t>beckon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在我头上on招手beck, 示意我回去 back, </t>
+  </si>
+  <si>
+    <t>bedraggle</t>
+  </si>
+  <si>
+    <t>我真是被拖drag 够了gle，  弄得又湿又脏</t>
+  </si>
+  <si>
+    <t>befuddle</t>
+  </si>
+  <si>
+    <t>你的比划都让我更加迷惑了</t>
+  </si>
+  <si>
+    <t>beget</t>
+  </si>
+  <si>
+    <t>behold</t>
+  </si>
+  <si>
+    <t>是be他拿到的hold， 我看到了</t>
+  </si>
+  <si>
+    <t>beholden</t>
+  </si>
+  <si>
+    <t>感激的</t>
+  </si>
+  <si>
+    <t>bemuse</t>
+  </si>
+  <si>
+    <t>我是be在冥想muse, 看上去像发呆</t>
+  </si>
+  <si>
+    <t>abet</t>
+  </si>
+  <si>
+    <t>我敢打一次赌bet, 你帮不了他，鼓励不了他</t>
+  </si>
+  <si>
+    <t>abash</t>
+  </si>
+  <si>
+    <t>一次a当众痛殴basg， 会使他难堪、羞愧</t>
+  </si>
+  <si>
+    <t>abase</t>
+  </si>
+  <si>
+    <t>一味看基础，只会降低自己的地位</t>
+  </si>
+  <si>
+    <t>abeyance</t>
+  </si>
+  <si>
+    <t>碧昂斯能使你的计划中止、搁置。</t>
+  </si>
+  <si>
+    <t>abhor</t>
+  </si>
+  <si>
+    <t>偶不活了， 我对这个世界深恶痛绝</t>
+  </si>
+  <si>
+    <t>abdicate</t>
+  </si>
+  <si>
+    <t>阿布ab的弟弟di 正式放弃 了美食cate</t>
+  </si>
+  <si>
+    <t>aberrant</t>
+  </si>
+  <si>
+    <t>阿布错误err地踩了只蚂蚁， 这事非常异常。</t>
+  </si>
+  <si>
+    <t>abate</t>
+  </si>
+  <si>
+    <t>一只a 蝙蝠bat 能 减弱bate 减轻abate痛苦。</t>
+  </si>
+  <si>
+    <t>abscond</t>
+  </si>
+  <si>
+    <t>阿布是刚到，就偷偷离开了</t>
+  </si>
+  <si>
+    <t>abrogate</t>
+  </si>
+  <si>
+    <t>阿布若abro出了这门gate, 就会被正式废除， 以后无视他的存在</t>
+  </si>
+  <si>
+    <t>abrade</t>
+  </si>
+  <si>
+    <t>aboveboard</t>
+  </si>
+  <si>
+    <t>一切都拿到木板上来说， 绝对光明正大、无欺诈。</t>
+  </si>
+  <si>
+    <t>abjure</t>
+  </si>
+  <si>
+    <t>俄不介abjure意发誓来放弃吸烟， 我会抵制吸烟诱惑的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abridge </t>
+  </si>
+  <si>
+    <t>一座桥梁缩短了距离</t>
+  </si>
+  <si>
+    <t>abide</t>
+  </si>
+  <si>
+    <t>一个人等待，要持续很久</t>
+  </si>
+  <si>
+    <t>abject</t>
+  </si>
+  <si>
+    <t>我不介钱给他， 即使他很卑微，最后无精打采的走了， 背影看着很凄凉</t>
+  </si>
+  <si>
+    <t>abominate</t>
+  </si>
+  <si>
+    <t>阿布憎恶别人对他命运的主宰</t>
+  </si>
+  <si>
+    <t>abut</t>
+  </si>
+  <si>
+    <t>但是为什么是毗邻呢？</t>
+  </si>
+  <si>
+    <t>abstruse</t>
+  </si>
+  <si>
+    <t>绝对值真的是复杂难懂的</t>
+  </si>
+  <si>
+    <t>absurd</t>
+  </si>
+  <si>
+    <t>我不舍得从这个不合理的梦境中醒来</t>
+  </si>
+  <si>
+    <t>abstemious</t>
+  </si>
+  <si>
+    <t>indulgent</t>
+  </si>
+  <si>
+    <t>在道济（济公 ）他的心里，人生就该放纵</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>阿布喜欢滥用脏话来辱骂别人</t>
+  </si>
+  <si>
+    <t>absolve</t>
+  </si>
+  <si>
+    <t>阿布能解决你的牢狱之灾，让你无罪</t>
+  </si>
+  <si>
+    <t>abysmal</t>
+  </si>
+  <si>
+    <t>阿布ab 是yes 膜mal法师, 水平不可估量great, 却闷声发大财， 极低 调</t>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>虽然接近了，但也只是个打辅助的帮凶</t>
+  </si>
+  <si>
+    <t>accost</t>
+  </si>
+  <si>
+    <t>在ac米兰花钱cost去搭讪accost</t>
+  </si>
+  <si>
+    <t>accolade</t>
+  </si>
+  <si>
+    <t>一个a酷ccol小伙lad 表扬我、 非常赞赏我</t>
+  </si>
+  <si>
+    <t>accede</t>
+  </si>
+  <si>
+    <t>在ac米兰测试得cede不错，赞成就任主教练一职</t>
+  </si>
+  <si>
+    <t>accelerate</t>
+  </si>
+  <si>
+    <t>加速到光速， 会让事情提前发生， 质量变大</t>
+  </si>
+  <si>
+    <t>acrimonious</t>
+  </si>
+  <si>
+    <t>酸到家的人也是刻薄的， 酸别人钱的人真刻薄</t>
+  </si>
+  <si>
+    <t>acquiesce</t>
+  </si>
+  <si>
+    <t>ac米兰安静quie地默认了这些行为</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>累积cumulate的过程是逐渐增长的过程</t>
+  </si>
+  <si>
+    <t>accrete</t>
+  </si>
+  <si>
+    <t>AC米兰创造了逐渐增长的奇迹。</t>
+  </si>
+  <si>
+    <t>acumen</t>
+  </si>
+  <si>
+    <t>敏锐的男人们有着特别的洞察力</t>
+  </si>
+  <si>
+    <t>adamant</t>
+  </si>
+  <si>
+    <t>亚当像只蚂蚁一样 不可动摇， 固执。</t>
+  </si>
+  <si>
+    <t>adore</t>
+  </si>
+  <si>
+    <t>谢耳朵喜欢并宠爱他的女友</t>
   </si>
 </sst>
 </file>
@@ -776,8 +1049,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1250,10 +1531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,137 +1543,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,6 +1681,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1717,10 +2001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2580,7 +2864,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B108" t="s">
@@ -2660,7 +2944,7 @@
       </c>
     </row>
     <row r="118" ht="19.5" spans="1:2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B118" t="s">
@@ -2668,7 +2952,7 @@
       </c>
     </row>
     <row r="119" ht="19.5" spans="1:2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B119" t="s">
@@ -2676,7 +2960,7 @@
       </c>
     </row>
     <row r="120" ht="19.5" spans="1:2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B120" t="s">
@@ -2684,7 +2968,7 @@
       </c>
     </row>
     <row r="121" ht="19.5" spans="1:2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B121" t="s">
@@ -2692,10 +2976,10 @@
       </c>
     </row>
     <row r="122" ht="19.5" spans="1:3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C122" t="s">
@@ -2703,7 +2987,7 @@
       </c>
     </row>
     <row r="123" ht="19.5" spans="1:2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B123" t="s">
@@ -2756,11 +3040,378 @@
       </c>
     </row>
     <row r="130" ht="19.5" spans="1:2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B130" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>250</v>
+      </c>
+      <c r="B131" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" ht="19.5" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" ht="19.5" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>271</v>
+      </c>
+      <c r="B143" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>273</v>
+      </c>
+      <c r="B144" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>275</v>
+      </c>
+      <c r="B145" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>277</v>
+      </c>
+      <c r="B146" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>283</v>
+      </c>
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>285</v>
+      </c>
+      <c r="B150" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>287</v>
+      </c>
+      <c r="B151" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>290</v>
+      </c>
+      <c r="B153" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>294</v>
+      </c>
+      <c r="B155" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>298</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>300</v>
+      </c>
+      <c r="B158" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>302</v>
+      </c>
+      <c r="B159" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>304</v>
+      </c>
+      <c r="B160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>306</v>
+      </c>
+      <c r="B161" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>309</v>
+      </c>
+      <c r="B163" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>311</v>
+      </c>
+      <c r="B164" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>313</v>
+      </c>
+      <c r="B165" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>315</v>
+      </c>
+      <c r="B166" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>319</v>
+      </c>
+      <c r="B168" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>321</v>
+      </c>
+      <c r="B169" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>323</v>
+      </c>
+      <c r="B170" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>325</v>
+      </c>
+      <c r="B171" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>327</v>
+      </c>
+      <c r="B172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>331</v>
+      </c>
+      <c r="B174" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>333</v>
+      </c>
+      <c r="B175" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>335</v>
+      </c>
+      <c r="B176" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
